--- a/Analysis/worksheet.xlsx
+++ b/Analysis/worksheet.xlsx
@@ -1,26 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Documents\Programming\Repos\SameDiff\Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6AAF22-C4B3-4699-9A7C-1C16C2F5F0D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
+  <si>
+    <t>Prair	V1-V2	Perimiter Quotient	Congruency</t>
+  </si>
+  <si>
+    <t>20-20</t>
+  </si>
+  <si>
+    <t>22-22</t>
+  </si>
+  <si>
+    <t>24-24</t>
+  </si>
+  <si>
+    <t>26-26</t>
+  </si>
+  <si>
+    <t>28-28</t>
+  </si>
+  <si>
+    <t>30-30</t>
+  </si>
+  <si>
+    <t>32-32</t>
+  </si>
+  <si>
+    <t>34-34</t>
+  </si>
+  <si>
+    <t>42-42</t>
+  </si>
+  <si>
+    <t>44-44</t>
+  </si>
+  <si>
+    <t>46-46</t>
+  </si>
+  <si>
+    <t>19-19</t>
+  </si>
+  <si>
+    <t>21-21</t>
+  </si>
+  <si>
+    <t>23-23</t>
+  </si>
+  <si>
+    <t>25-25</t>
+  </si>
+  <si>
+    <t>27-27</t>
+  </si>
+  <si>
+    <t>29-29</t>
+  </si>
+  <si>
+    <t>31-31</t>
+  </si>
+  <si>
+    <t>18-18</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +108,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +137,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -66,6 +171,1478 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>2.9736319468060999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0531067201353901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9967169918979302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0620296588470799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.09041399420388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4274234536566399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1986853559570001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89405968629741805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.936184549944586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86476121429102704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1483770699175599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.19835452046882</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.21446821140421</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.234148758089</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2944413554515599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.27553131200612</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.20187371404669</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56776695587006198</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4705092378047799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56447624307303501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.908252625803043</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.17334549206074</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.496754304367092</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79928678462027003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.03257565015979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75234149975494502</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64892555206076497</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92903873802683901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.88080246727922995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.32597832680567</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.88383280810939402</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90530509108605595</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0057500222797999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99523774062625203</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1984411602227401</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0017911015605601</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99132019926443204</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1937237518857899</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5449936403151201</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.87831381769939998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1316567174577401</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.00969131262061</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99455821907001596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1924975254064201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0081398915845301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99303005048681803</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.19066521713232</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0396025900903501</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.02402119104824</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.2278242870795699</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.3840594159999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.91991241199999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.1327763470000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>6.5249127616400903E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9073197052405799E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6823269654708298E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1855470382477801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5397961556560201E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.30455157072372E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5976598217372301E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4203130983637199E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2288846578448498E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7143203094234299E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8112440679090998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8395459080344299E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3753341325188702E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1921842382623002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2409811328759603E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8619791510502399E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.42437814627344E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5866534849617E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5935027888811999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2149609524430298E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7742719678592599E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7667034855280598E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.15343204410301E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.5364757542526602E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.72355518467604E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0037120865800999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.70514327324486E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7985945522524898E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.7344608159992699E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.61626206975469E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3586146679685799E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.59465232041507E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.27002384046301E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7007069874178299E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.54521488292383E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.6125957720454897E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.12782025894497E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.8084967662718297E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.9652818536559501E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.08790761690149E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6793951836133201E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.16964545800671099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.123865135834451</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.17040950250782899</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.22477461663922099</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.14920069222520899</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.160109589875647</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.1891879033417797E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.121499318292537</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.114038711388549</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.171980983</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.348985398</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.262982891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-775D-4BDD-BC7D-6396B09FD87E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$1:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.42025103000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.471924383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.428345633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57307916000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47413562199999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53243453299999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58874376299999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72974655700000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71638527200000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77204792799999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72105161799999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84535816100000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41765292199999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14569378499999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53133594100000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22580383500000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25171195400000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21645530800000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.221513302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.190486503</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28612215099999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.123278972</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21637921199999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.150167992</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27886101699999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13956849299999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92470249900000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99102397099999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99692197800000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.95905703899999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99299780699999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95528191500000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0270633220000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98805355900000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$1:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1.9127147000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9568045000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.648438E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4034033E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5794201000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5371708999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1343779E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0595756999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3482599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8676580000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9234585E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4445565999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1712169E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7931694000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0012663999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6211991E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2830497E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8161812000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8941832000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1562992E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6185834E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1663003999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9906006999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0175269000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9399349E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5708324E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0828895E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7842371999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4115909E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.7728594999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5084908999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.8128489000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5054217E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3111678E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-775D-4BDD-BC7D-6396B09FD87E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="464941176"/>
+        <c:axId val="464944128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="464941176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464944128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="464944128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464941176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD67A754-BBCE-4852-9303-3035A335B24A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1907,1225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1">
+        <v>0.42025103000000003</v>
+      </c>
+      <c r="I1">
+        <v>1.9127147000000001E-2</v>
+      </c>
+      <c r="J1">
+        <v>1.5794201000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2.9736319468060999</v>
+      </c>
+      <c r="D2">
+        <v>6.5249127616400903E-3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0.471924383</v>
+      </c>
+      <c r="I2">
+        <v>2.9568045000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3.0531067201353901</v>
+      </c>
+      <c r="D3">
+        <v>1.9073197052405799E-2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>0.428345633</v>
+      </c>
+      <c r="I3">
+        <v>1.648438E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3.9967169918979302</v>
+      </c>
+      <c r="D4">
+        <v>2.6823269654708298E-2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0.57307916000000003</v>
+      </c>
+      <c r="I4">
+        <v>2.4034033E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1.0620296588470799</v>
+      </c>
+      <c r="D5">
+        <v>2.1855470382477801E-2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>0.47413562199999998</v>
+      </c>
+      <c r="I5">
+        <v>1.5794201000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1.09041399420388</v>
+      </c>
+      <c r="D6">
+        <v>2.5397961556560201E-2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>0.53243453299999999</v>
+      </c>
+      <c r="I6">
+        <v>2.5371708999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.4274234536566399</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.30455157072372E-2</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.58874376299999998</v>
+      </c>
+      <c r="I7">
+        <v>2.1343779E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1.1986853559570001</v>
+      </c>
+      <c r="D8">
+        <v>4.5976598217372301E-2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.72974655700000002</v>
+      </c>
+      <c r="I8">
+        <v>2.0595756999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.0595756999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0.89405968629741805</v>
+      </c>
+      <c r="D9">
+        <v>2.4203130983637199E-2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>0.71638527200000002</v>
+      </c>
+      <c r="I9">
+        <v>2.3482599999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.936184549944586</v>
+      </c>
+      <c r="D10">
+        <v>2.2288846578448498E-2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0.77204792799999999</v>
+      </c>
+      <c r="I10">
+        <v>3.8676580000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>0.86476121429102704</v>
+      </c>
+      <c r="D11">
+        <v>2.7143203094234299E-2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>0.72105161799999995</v>
+      </c>
+      <c r="I11">
+        <v>2.9234585E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1.1483770699175599</v>
+      </c>
+      <c r="D12">
+        <v>4.8112440679090998E-2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0.84535816100000005</v>
+      </c>
+      <c r="I12">
+        <v>3.4445565999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>1.19835452046882</v>
+      </c>
+      <c r="D13">
+        <v>2.8395459080344299E-2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>0.41765292199999998</v>
+      </c>
+      <c r="I13">
+        <v>2.1712169E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1.21446821140421</v>
+      </c>
+      <c r="D14">
+        <v>3.3753341325188702E-2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.14569378499999999</v>
+      </c>
+      <c r="I14">
+        <v>3.7931694000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1.234148758089</v>
+      </c>
+      <c r="D15">
+        <v>3.1921842382623002E-2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>0.53133594100000003</v>
+      </c>
+      <c r="I15">
+        <v>2.0012663999999999E-2</v>
+      </c>
+      <c r="J15">
+        <v>2.0012663999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.2944413554515599</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5.2409811328759603E-2</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.22580383500000001</v>
+      </c>
+      <c r="I16">
+        <v>2.6211991E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>1.27553131200612</v>
+      </c>
+      <c r="D17">
+        <v>2.8619791510502399E-2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>0.25171195400000002</v>
+      </c>
+      <c r="I17">
+        <v>3.2830497E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>1.20187371404669</v>
+      </c>
+      <c r="D18">
+        <v>1.42437814627344E-2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0.21645530800000001</v>
+      </c>
+      <c r="I18">
+        <v>2.8161812000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.56776695587006198</v>
+      </c>
+      <c r="D19">
+        <v>1.5866534849617E-2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>0.221513302</v>
+      </c>
+      <c r="I19">
+        <v>3.8941832000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>1.4705092378047799</v>
+      </c>
+      <c r="D20">
+        <v>2.5935027888811999E-2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>0.190486503</v>
+      </c>
+      <c r="I20">
+        <v>2.1562992E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0.56447624307303501</v>
+      </c>
+      <c r="D21">
+        <v>2.2149609524430298E-2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>0.28612215099999999</v>
+      </c>
+      <c r="I21">
+        <v>3.6185834E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0.908252625803043</v>
+      </c>
+      <c r="D22">
+        <v>1.7742719678592599E-2</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0.123278972</v>
+      </c>
+      <c r="I22">
+        <v>5.1663003999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1.17334549206074</v>
+      </c>
+      <c r="D23">
+        <v>3.7667034855280598E-2</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>0.21637921199999999</v>
+      </c>
+      <c r="I23">
+        <v>2.9906006999999998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>0.496754304367092</v>
+      </c>
+      <c r="D24">
+        <v>2.15343204410301E-2</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0.150167992</v>
+      </c>
+      <c r="I24">
+        <v>5.0175269000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>0.79928678462027003</v>
+      </c>
+      <c r="D25">
+        <v>2.5364757542526602E-2</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.27886101699999999</v>
+      </c>
+      <c r="I25">
+        <v>1.9399349E-2</v>
+      </c>
+      <c r="J25">
+        <v>1.9399349E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.03257565015979</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.72355518467604E-2</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.13956849299999999</v>
+      </c>
+      <c r="I26">
+        <v>3.5708324E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>0.75234149975494502</v>
+      </c>
+      <c r="D27">
+        <v>2.0037120865800999E-2</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>0.92470249900000001</v>
+      </c>
+      <c r="I27">
+        <v>2.0828895E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>0.64892555206076497</v>
+      </c>
+      <c r="D28">
+        <v>1.70514327324486E-2</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0.99102397099999995</v>
+      </c>
+      <c r="I28">
+        <v>1.7842371999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.92903873802683901</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3.7985945522524898E-2</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.99692197800000004</v>
+      </c>
+      <c r="I29">
+        <v>3.4115909E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>0.88080246727922995</v>
+      </c>
+      <c r="D30">
+        <v>2.7344608159992699E-2</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0.95905703899999994</v>
+      </c>
+      <c r="I30">
+        <v>3.7728594999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>1.32597832680567</v>
+      </c>
+      <c r="D31">
+        <v>2.61626206975469E-2</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>0.99299780699999995</v>
+      </c>
+      <c r="I31">
+        <v>3.5084908999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.88383280810939402</v>
+      </c>
+      <c r="D32">
+        <v>1.3586146679685799E-2</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>0.95528191500000004</v>
+      </c>
+      <c r="I32">
+        <v>3.8128489000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>0.90530509108605595</v>
+      </c>
+      <c r="D33">
+        <v>1.59465232041507E-2</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>1.0270633220000001</v>
+      </c>
+      <c r="I33">
+        <v>1.5054217E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1.0057500222797999</v>
+      </c>
+      <c r="D34">
+        <v>3.27002384046301E-2</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>0.98805355900000003</v>
+      </c>
+      <c r="I34">
+        <v>1.3111678E-2</v>
+      </c>
+      <c r="J34">
+        <v>1.3111678E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>0.99523774062625203</v>
+      </c>
+      <c r="D35">
+        <v>1.7007069874178299E-2</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2">
+        <f>AVERAGE(H1:H34)</f>
+        <v>0.54422462167647068</v>
+      </c>
+      <c r="I35" s="2">
+        <f>AVERAGE(I1:I34)</f>
+        <v>2.824873188235294E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>1.1984411602227401</v>
+      </c>
+      <c r="D36">
+        <v>1.54521488292383E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>1.0017911015605601</v>
+      </c>
+      <c r="D37">
+        <v>3.6125957720454897E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>0.99132019926443204</v>
+      </c>
+      <c r="D38">
+        <v>2.12782025894497E-2</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.1937237518857899</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8.8084967662718297E-3</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>1.5449936403151201</v>
+      </c>
+      <c r="D40">
+        <v>1.9652818536559501E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>0.87831381769939998</v>
+      </c>
+      <c r="D41">
+        <v>8.08790761690149E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1.1316567174577401</v>
+      </c>
+      <c r="D42">
+        <v>3.6793951836133201E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>1.00969131262061</v>
+      </c>
+      <c r="D43">
+        <v>0.16964545800671099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>0.99455821907001596</v>
+      </c>
+      <c r="D44">
+        <v>0.123865135834451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>1.1924975254064201</v>
+      </c>
+      <c r="D45">
+        <v>0.17040950250782899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>1.0081398915845301</v>
+      </c>
+      <c r="D46">
+        <v>0.22477461663922099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>0.99303005048681803</v>
+      </c>
+      <c r="D47">
+        <v>0.14920069222520899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>1.19066521713232</v>
+      </c>
+      <c r="D48">
+        <v>0.160109589875647</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.0396025900903501</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8.1891879033417797E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>1.02402119104824</v>
+      </c>
+      <c r="D50">
+        <v>0.121499318292537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.2278242870795699</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.114038711388549</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>1.3840594159999999</v>
+      </c>
+      <c r="D52">
+        <v>0.171980983</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0.91991241199999996</v>
+      </c>
+      <c r="D53">
+        <v>0.348985398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>1.1327763470000001</v>
+      </c>
+      <c r="D54">
+        <v>0.262982891</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f>AVERAGE(C2:C54)</f>
+        <v>1.1785171113421404</v>
+      </c>
+      <c r="D56">
+        <f>AVERAGE(D2:D54)</f>
+        <v>5.7991979991925173E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Analysis/worksheet.xlsx
+++ b/Analysis/worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Documents\Programming\Repos\SameDiff\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6AAF22-C4B3-4699-9A7C-1C16C2F5F0D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A2938E-823C-46B2-8AA6-AAC1AC6714A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
-  <si>
-    <t>Prair	V1-V2	Perimiter Quotient	Congruency</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="15">
   <si>
     <t>20-20</t>
   </si>
@@ -55,21 +52,6 @@
   </si>
   <si>
     <t>30-30</t>
-  </si>
-  <si>
-    <t>32-32</t>
-  </si>
-  <si>
-    <t>34-34</t>
-  </si>
-  <si>
-    <t>42-42</t>
-  </si>
-  <si>
-    <t>44-44</t>
-  </si>
-  <si>
-    <t>46-46</t>
   </si>
   <si>
     <t>19-19</t>
@@ -93,14 +75,17 @@
     <t>31-31</t>
   </si>
   <si>
-    <t>18-18</t>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Different</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +100,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +125,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,17 +156,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -189,7 +204,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9277472391422776E-2"/>
+          <c:y val="3.3794162826420893E-2"/>
+          <c:w val="0.90809077022121143"/>
+          <c:h val="0.8949361974914426"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -234,336 +259,438 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$54</c:f>
+              <c:f>Sheet1!$C$2:$C$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>2.9736319468060999</c:v>
+                  <c:v>0.70080145632105295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0531067201353901</c:v>
+                  <c:v>0.73779416529920006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9967169918979302</c:v>
+                  <c:v>0.97520570785987304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0620296588470799</c:v>
+                  <c:v>0.98078676219844796</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.09041399420388</c:v>
+                  <c:v>0.998789610545052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4274234536566399</c:v>
+                  <c:v>0.96366864292797605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1986853559570001</c:v>
+                  <c:v>0.85680018084836695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89405968629741805</c:v>
+                  <c:v>0.97565524983937801</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.936184549944586</c:v>
+                  <c:v>0.95806939059937202</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86476121429102704</c:v>
+                  <c:v>0.48626271329952803</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1483770699175599</c:v>
+                  <c:v>0.98829844208584505</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.19835452046882</c:v>
+                  <c:v>0.98081171292466895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.21446821140421</c:v>
+                  <c:v>0.91253950778729198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.234148758089</c:v>
+                  <c:v>0.92711630329596195</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2944413554515599</c:v>
+                  <c:v>0.85090441780676795</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.27553131200612</c:v>
+                  <c:v>0.97231396691869398</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.20187371404669</c:v>
+                  <c:v>0.77374996119414596</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.56776695587006198</c:v>
+                  <c:v>0.808390630797164</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4705092378047799</c:v>
+                  <c:v>0.86926863678338195</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56447624307303501</c:v>
+                  <c:v>0.73861757677748396</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.908252625803043</c:v>
+                  <c:v>0.80492926111945995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.17334549206074</c:v>
+                  <c:v>0.97591908100675495</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.496754304367092</c:v>
+                  <c:v>0.86483680557155496</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.79928678462027003</c:v>
+                  <c:v>0.75730954377795201</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.03257565015979</c:v>
+                  <c:v>0.76526740099402601</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.75234149975494502</c:v>
+                  <c:v>0.65085213374587902</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.64892555206076497</c:v>
+                  <c:v>0.82222307779353598</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.92903873802683901</c:v>
+                  <c:v>0.83873103337359001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.88080246727922995</c:v>
+                  <c:v>0.81666293425744096</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.32597832680567</c:v>
+                  <c:v>0.96647707299140795</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.88383280810939402</c:v>
+                  <c:v>0.87744376730650198</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.90530509108605595</c:v>
+                  <c:v>0.74998258099834003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0057500222797999</c:v>
+                  <c:v>0.41337190431042098</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.99523774062625203</c:v>
+                  <c:v>0.64518533769765796</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1984411602227401</c:v>
+                  <c:v>0.52177739728303396</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0017911015605601</c:v>
+                  <c:v>0.74416660493490705</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99132019926443204</c:v>
+                  <c:v>0.789166085701412</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1937237518857899</c:v>
+                  <c:v>0.71694775899956398</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5449936403151201</c:v>
+                  <c:v>0.99809275725621305</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.87831381769939998</c:v>
+                  <c:v>0.94111673437140997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.1316567174577401</c:v>
+                  <c:v>0.821336538028137</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.00969131262061</c:v>
+                  <c:v>0.77409685483347401</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.99455821907001596</c:v>
+                  <c:v>0.93117939576964603</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1924975254064201</c:v>
+                  <c:v>0.85177603354597198</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0081398915845301</c:v>
+                  <c:v>0.71494512626076001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.99303005048681803</c:v>
+                  <c:v>0.50803600549948802</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.19066521713232</c:v>
+                  <c:v>0.70416014756638501</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0396025900903501</c:v>
+                  <c:v>0.91078160839168298</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.02402119104824</c:v>
+                  <c:v>0.58690986369088405</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2278242870795699</c:v>
+                  <c:v>0.92473121953579696</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.3840594159999999</c:v>
+                  <c:v>0.80046515629653403</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.91991241199999996</c:v>
+                  <c:v>0.60636515467339602</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1327763470000001</c:v>
+                  <c:v>0.78839010418533295</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.54186995786464398</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.66933422910160001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.53369582570256202</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.54752286074664003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.897428620490345</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92097752974063196</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.77350424195206802</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.72164313635509303</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.88053214654471401</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.93147754972323904</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75894097310530795</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.93966929602402005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.95890932923780203</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.63164042024679901</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.82649518510740705</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.27963050894228503</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.47818465239921398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$54</c:f>
+              <c:f>Sheet1!$D$2:$D$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
-                  <c:v>6.5249127616400903E-3</c:v>
+                  <c:v>0.65365214512880399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9073197052405799E-2</c:v>
+                  <c:v>0.32550478814136002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6823269654708298E-2</c:v>
+                  <c:v>0.327294236302686</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1855470382477801E-2</c:v>
+                  <c:v>0.376743734030203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5397961556560201E-2</c:v>
+                  <c:v>0.37706339135906503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.30455157072372E-2</c:v>
+                  <c:v>0.50171078675580905</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5976598217372301E-2</c:v>
+                  <c:v>0.41212439297477199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4203130983637199E-2</c:v>
+                  <c:v>0.392216443567319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2288846578448498E-2</c:v>
+                  <c:v>0.37466816712692003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7143203094234299E-2</c:v>
+                  <c:v>1.1004763672219899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8112440679090998E-2</c:v>
+                  <c:v>0.17197678684143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8395459080344299E-2</c:v>
+                  <c:v>0.27185121519665101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3753341325188702E-2</c:v>
+                  <c:v>0.22250955160005501</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1921842382623002E-2</c:v>
+                  <c:v>0.18605780199286101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2409811328759603E-2</c:v>
+                  <c:v>0.46143786560146299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8619791510502399E-2</c:v>
+                  <c:v>0.39257830806516197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.42437814627344E-2</c:v>
+                  <c:v>0.58217448866594701</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5866534849617E-2</c:v>
+                  <c:v>0.36081531254600502</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5935027888811999E-2</c:v>
+                  <c:v>0.38964858326879498</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2149609524430298E-2</c:v>
+                  <c:v>0.56406284548143903</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7742719678592599E-2</c:v>
+                  <c:v>0.415612536716088</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7667034855280598E-2</c:v>
+                  <c:v>0.33302551240721201</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.15343204410301E-2</c:v>
+                  <c:v>0.304833021876453</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.5364757542526602E-2</c:v>
+                  <c:v>0.48593378431054601</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.72355518467604E-2</c:v>
+                  <c:v>0.385326867126771</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0037120865800999E-2</c:v>
+                  <c:v>0.63413451564774703</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.70514327324486E-2</c:v>
+                  <c:v>0.39240720568544402</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.7985945522524898E-2</c:v>
+                  <c:v>0.48278721180809703</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.7344608159992699E-2</c:v>
+                  <c:v>0.53237461976345501</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.61626206975469E-2</c:v>
+                  <c:v>0.29316574774743898</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3586146679685799E-2</c:v>
+                  <c:v>0.34358800500742798</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.59465232041507E-2</c:v>
+                  <c:v>0.371472528918178</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.27002384046301E-2</c:v>
+                  <c:v>0.85980875286904501</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7007069874178299E-2</c:v>
+                  <c:v>0.53191610587913496</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.54521488292383E-2</c:v>
+                  <c:v>0.72877800122090697</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.6125957720454897E-2</c:v>
+                  <c:v>0.53506769729147896</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.12782025894497E-2</c:v>
+                  <c:v>0.51873969685223298</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.8084967662718297E-3</c:v>
+                  <c:v>1.2765738052361999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.9652818536559501E-2</c:v>
+                  <c:v>0.292197397791917</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.08790761690149E-3</c:v>
+                  <c:v>0.59710098513296095</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.6793951836133201E-3</c:v>
+                  <c:v>0.52253183431579797</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.16964545800671099</c:v>
+                  <c:v>0.71774531315817702</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.123865135834451</c:v>
+                  <c:v>0.35577783840967903</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.17040950250782899</c:v>
+                  <c:v>0.26473369031032201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.22477461663922099</c:v>
+                  <c:v>0.54158755413248705</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.14920069222520899</c:v>
+                  <c:v>0.62531919566403404</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.160109589875647</c:v>
+                  <c:v>0.50259454570283801</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.1891879033417797E-2</c:v>
+                  <c:v>0.26993655507179998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.121499318292537</c:v>
+                  <c:v>0.50111167341004403</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.114038711388549</c:v>
+                  <c:v>0.26055633801373901</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.171980983</c:v>
+                  <c:v>0.45251708459200501</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.348985398</c:v>
+                  <c:v>0.46866975151068901</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.262982891</c:v>
+                  <c:v>0.36476494706323098</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3940961608918001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.47894614638011501</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.94197947743281696</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0660845757047399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.36518991700686998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.28171513463158998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.49443606543445001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.512215679704353</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.354504094877162</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.228349764665293</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.59627444564496601</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.29332695171859702</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.25931453913110702</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.436800260210363</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.47310835612659602</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3542999992595401</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.77295334596466803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,222 +743,438 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$1:$H$34</c:f>
+              <c:f>Sheet1!$J$2:$J$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>0.42025103000000003</c:v>
+                  <c:v>0.68038257649106004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.471924383</c:v>
+                  <c:v>0.45325032285561401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.428345633</c:v>
+                  <c:v>0.65398106493252395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57307916000000003</c:v>
+                  <c:v>0.51567494857528295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47413562199999998</c:v>
+                  <c:v>0.70869429416581897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53243453299999999</c:v>
+                  <c:v>0.55274387010403003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58874376299999998</c:v>
+                  <c:v>0.59437069442022294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72974655700000002</c:v>
+                  <c:v>0.55916827158462901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71638527200000002</c:v>
+                  <c:v>0.53614214761685497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77204792799999999</c:v>
+                  <c:v>0.77340511279102797</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72105161799999995</c:v>
+                  <c:v>0.58445169822815601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.84535816100000005</c:v>
+                  <c:v>0.59541592362177798</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41765292199999998</c:v>
+                  <c:v>0.131458357328925</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.14569378499999999</c:v>
+                  <c:v>0.71605610961538002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.53133594100000003</c:v>
+                  <c:v>0.290656868686749</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.22580383500000001</c:v>
+                  <c:v>0.30209227077122502</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25171195400000002</c:v>
+                  <c:v>0.59813882816532005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.21645530800000001</c:v>
+                  <c:v>0.206180545702257</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.221513302</c:v>
+                  <c:v>0.46878935594120602</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.190486503</c:v>
+                  <c:v>0.159097961250415</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.28612215099999999</c:v>
+                  <c:v>0.215104124850095</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.123278972</c:v>
+                  <c:v>0.120991136845665</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.21637921199999999</c:v>
+                  <c:v>0.57108444044722795</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.150167992</c:v>
+                  <c:v>0.93052653469786895</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.27886101699999999</c:v>
+                  <c:v>0.94802220996239495</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.13956849299999999</c:v>
+                  <c:v>0.98556256598870096</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.92470249900000001</c:v>
+                  <c:v>0.82957877609664199</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99102397099999995</c:v>
+                  <c:v>0.79246874557181801</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99692197800000004</c:v>
+                  <c:v>0.83100495909287597</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.95905703899999994</c:v>
+                  <c:v>0.73229756699039805</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99299780699999995</c:v>
+                  <c:v>0.690065052388113</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.95528191500000004</c:v>
+                  <c:v>0.965452591209782</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0270633220000001</c:v>
+                  <c:v>0.72576123630297396</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.98805355900000003</c:v>
+                  <c:v>0.68390568004883101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93136819030673501</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.75069190911734296</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63048396056732403</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.82864885359797003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.929950377103957</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.71514178610201495</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.751645012385877</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.49987878977314298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.53631314302863298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68883206182197398</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.386034800835722</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.77485296709753004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.55568298956846096</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38290552731203398</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.88185239558058504</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.35451715225556901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.78675136752192898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.521436579592922</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.94846141130884498</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.56003076206176705</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63973907190006896</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.652893437765937</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.85292397889631599</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.65700471299599705</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.67593459062962202</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.66988155337826405</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.53889561344408299</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.67804128438134403</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.70262885478704296</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.696336768702288</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56017788255410395</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.70481874688411805</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.91005975246666104</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.90191010949971295</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.72555424056559603</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.91289614702435096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$1:$I$34</c:f>
+              <c:f>Sheet1!$K$2:$K$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
-                  <c:v>1.9127147000000001E-2</c:v>
+                  <c:v>0.69180680865977895</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9568045000000001E-2</c:v>
+                  <c:v>1.10644206852924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.648438E-2</c:v>
+                  <c:v>0.63838100822975896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4034033E-2</c:v>
+                  <c:v>0.88372177452731504</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5794201000000001E-2</c:v>
+                  <c:v>0.61599326887238104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5371708999999999E-2</c:v>
+                  <c:v>1.0447104110173999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1343779E-2</c:v>
+                  <c:v>0.85339249251041205</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0595756999999999E-2</c:v>
+                  <c:v>0.742429126729789</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3482599999999999E-2</c:v>
+                  <c:v>1.1168134270149801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8676580000000002E-2</c:v>
+                  <c:v>0.58557502211203305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9234585E-2</c:v>
+                  <c:v>1.12862728652335</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4445565999999997E-2</c:v>
+                  <c:v>1.4352994025451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1712169E-2</c:v>
+                  <c:v>25.668422058296802</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7931694000000002E-2</c:v>
+                  <c:v>0.53583045862582301</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0012663999999999E-2</c:v>
+                  <c:v>2.3052961588178502</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.6211991E-2</c:v>
+                  <c:v>2.6139348289506299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2830497E-2</c:v>
+                  <c:v>1.3755162285746001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.8161812000000001E-2</c:v>
+                  <c:v>3.38087808420762</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8941832000000003E-2</c:v>
+                  <c:v>2.3538785462924401</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1562992E-2</c:v>
+                  <c:v>9.8181368656844796</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6185834E-2</c:v>
+                  <c:v>9.1347701073761804</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.1663003999999998E-2</c:v>
+                  <c:v>18.0775366379243</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.9906006999999998E-2</c:v>
+                  <c:v>1.57732298429816</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0175269000000002E-2</c:v>
+                  <c:v>0.39056620639427397</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9399349E-2</c:v>
+                  <c:v>0.530157504700833</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.5708324E-2</c:v>
+                  <c:v>0.51124008713209002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0828895E-2</c:v>
+                  <c:v>0.32695916988778201</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7842371999999999E-2</c:v>
+                  <c:v>0.581535542784411</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.4115909E-2</c:v>
+                  <c:v>0.52047026483925296</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.7728594999999997E-2</c:v>
+                  <c:v>0.46828115054949399</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.5084908999999997E-2</c:v>
+                  <c:v>0.38600865409410001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.8128489000000002E-2</c:v>
+                  <c:v>0.42797340732843803</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.5054217E-2</c:v>
+                  <c:v>0.43533273252320598</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3111678E-2</c:v>
+                  <c:v>0.34347521644754903</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.46175256482372101</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.334993890846571</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.76800072306829903</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.266177246330979</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38997792009509702</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.485685776164414</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43084590921882199</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.73241670037403095</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.52046207588471305</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.50325821470335297</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.90103476438808205</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.44700512177312501</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.40057557384508</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.88710828041795897</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.34875596621593302</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.89087258306277695</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.40921097040996901</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.67475604916151799</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.44691536904802398</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.64256503104376395</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.49918856736263301</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.63672451797266305</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.254947449065073</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.75711325501624804</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.54811853230349605</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.544260375591606</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.77465632447269495</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.49633475129986498</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.54721122624396501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.53723313818436003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.83554213842601499</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56317670030058298</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.36286815796914301</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.26727781628096198</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.81858462330485504</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.53706397290163599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,8 +1225,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -914,6 +1258,7 @@
         <c:axId val="464944128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1026,7 +1371,516 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="8">
+                  <c:v>0.90528568515985774</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85696562928934505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81763478997799455</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63843584815449927</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.89316445605177608</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.70318926402423376</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.81572844077283879</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.71594454971905419</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.86982450037718562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="8">
+                  <c:v>0.41566423170965983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.41395262810003591</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.42605572326894597</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74181400989149981</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49707067376170644</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54360100924430166</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.44677664873800721</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.72848776542280769</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.54233599963333545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5241-4E45-8364-5CACB5FE1163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="6">
+                  <c:v>0.59415682450636476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60971663076848925</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36006590160056973</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29471699212582636</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.84287387879410891</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77696799996223465</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.66033111726860638</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.64883587943313037</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.71801078902409121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="6">
+                  <c:v>0.83349254747804091</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0017488529850505</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7808708761727763</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3567860783432701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.65296358253292497</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.44124658508516096</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55133581032520462</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.64469275978230844</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.5838031547919561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5241-4E45-8364-5CACB5FE1163}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="590013440"/>
+        <c:axId val="590013768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="590013440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590013768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="590013768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590013440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1604,20 +2458,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1637,6 +3029,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E93C23-5BC7-4C78-A1EC-4CD7F7D8395B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1908,35 +3336,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1">
-        <v>0.42025103000000003</v>
-      </c>
-      <c r="I1">
-        <v>1.9127147000000001E-2</v>
-      </c>
-      <c r="J1">
-        <v>1.5794201000000001E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1944,1184 +3360,2257 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2.9736319468060999</v>
+        <v>0.70080145632105295</v>
       </c>
       <c r="D2">
-        <v>6.5249127616400903E-3</v>
-      </c>
-      <c r="F2">
+        <v>0.65365214512880399</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.471924383</v>
-      </c>
-      <c r="I2">
-        <v>2.9568045000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>0.68038257649106004</v>
+      </c>
+      <c r="K2">
+        <v>0.69180680865977895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.0531067201353901</v>
+        <v>0.73779416529920006</v>
       </c>
       <c r="D3">
-        <v>1.9073197052405799E-2</v>
-      </c>
-      <c r="F3">
+        <v>0.32550478814136002</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>0.428345633</v>
-      </c>
-      <c r="I3">
-        <v>1.648438E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.45325032285561401</v>
+      </c>
+      <c r="K3">
+        <v>1.10644206852924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3.9967169918979302</v>
+        <v>0.97520570785987304</v>
       </c>
       <c r="D4">
-        <v>2.6823269654708298E-2</v>
-      </c>
-      <c r="F4">
+        <v>0.327294236302686</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>0.57307916000000003</v>
-      </c>
-      <c r="I4">
-        <v>2.4034033E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>0.65398106493252395</v>
+      </c>
+      <c r="K4">
+        <v>0.63838100822975896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1.0620296588470799</v>
+        <v>0.98078676219844796</v>
       </c>
       <c r="D5">
-        <v>2.1855470382477801E-2</v>
-      </c>
-      <c r="F5">
+        <v>0.376743734030203</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>0.47413562199999998</v>
-      </c>
-      <c r="I5">
-        <v>1.5794201000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.51567494857528295</v>
+      </c>
+      <c r="K5">
+        <v>0.88372177452731504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0.998789610545052</v>
+      </c>
+      <c r="D6">
+        <v>0.37706339135906503</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>0.70869429416581897</v>
+      </c>
+      <c r="K6">
+        <v>0.61599326887238104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.96366864292797605</v>
+      </c>
+      <c r="D7">
+        <v>0.50171078675580905</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0.55274387010403003</v>
+      </c>
+      <c r="K7">
+        <v>1.0447104110173999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.85680018084836695</v>
+      </c>
+      <c r="D8">
+        <v>0.41212439297477199</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>0.59437069442022294</v>
+      </c>
+      <c r="K8">
+        <v>0.85339249251041205</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(J2:J8)</f>
+        <v>0.59415682450636476</v>
+      </c>
+      <c r="M8">
+        <f>AVERAGE(K2:K8)</f>
+        <v>0.83349254747804091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.97565524983937801</v>
+      </c>
+      <c r="D9">
+        <v>0.392216443567319</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <v>0.55916827158462901</v>
+      </c>
+      <c r="K9">
+        <v>0.742429126729789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>1.09041399420388</v>
-      </c>
-      <c r="D6">
-        <v>2.5397961556560201E-2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>0.53243453299999999</v>
-      </c>
-      <c r="I6">
-        <v>2.5371708999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.4274234536566399</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.30455157072372E-2</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="C10">
+        <v>0.95806939059937202</v>
+      </c>
+      <c r="D10">
+        <v>0.37466816712692003</v>
+      </c>
+      <c r="E10">
+        <f>AVERAGE(C2:C10)</f>
+        <v>0.90528568515985774</v>
+      </c>
+      <c r="F10">
+        <f>AVERAGE(D2:D10)</f>
+        <v>0.41566423170965983</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.58874376299999998</v>
-      </c>
-      <c r="I7">
-        <v>2.1343779E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>1.1986853559570001</v>
-      </c>
-      <c r="D8">
-        <v>4.5976598217372301E-2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0.72974655700000002</v>
-      </c>
-      <c r="I8">
-        <v>2.0595756999999999E-2</v>
-      </c>
-      <c r="J8">
-        <v>2.0595756999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>0.89405968629741805</v>
-      </c>
-      <c r="D9">
-        <v>2.4203130983637199E-2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>0.71638527200000002</v>
-      </c>
-      <c r="I9">
-        <v>2.3482599999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.936184549944586</v>
-      </c>
-      <c r="D10">
-        <v>2.2288846578448498E-2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>0.77204792799999999</v>
-      </c>
-      <c r="I10">
-        <v>3.8676580000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.53614214761685497</v>
+      </c>
+      <c r="K10">
+        <v>1.1168134270149801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0.86476121429102704</v>
+        <v>0.48626271329952803</v>
       </c>
       <c r="D11">
-        <v>2.7143203094234299E-2</v>
-      </c>
-      <c r="F11">
+        <v>1.1004763672219899</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11">
-        <v>0.72105161799999995</v>
-      </c>
-      <c r="I11">
-        <v>2.9234585E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>0.77340511279102797</v>
+      </c>
+      <c r="K11">
+        <v>0.58557502211203305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.98829844208584505</v>
+      </c>
+      <c r="D12">
+        <v>0.17197678684143</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>1.1483770699175599</v>
-      </c>
-      <c r="D12">
-        <v>4.8112440679090998E-2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>0.84535816100000005</v>
-      </c>
-      <c r="I12">
-        <v>3.4445565999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.58445169822815601</v>
+      </c>
+      <c r="K12">
+        <v>1.12862728652335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>1.19835452046882</v>
+        <v>0.98081171292466895</v>
       </c>
       <c r="D13">
-        <v>2.8395459080344299E-2</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
+        <v>0.27185121519665101</v>
       </c>
       <c r="H13">
-        <v>0.41765292199999998</v>
-      </c>
-      <c r="I13">
-        <v>2.1712169E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>0.59541592362177798</v>
+      </c>
+      <c r="K13">
+        <v>1.4352994025451</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(J9:J13)</f>
+        <v>0.60971663076848925</v>
+      </c>
+      <c r="M13">
+        <f>AVERAGE(K9:K13)</f>
+        <v>1.0017488529850505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.91253950778729198</v>
+      </c>
+      <c r="D14">
+        <v>0.22250955160005501</v>
+      </c>
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>1.21446821140421</v>
-      </c>
-      <c r="D14">
-        <v>3.3753341325188702E-2</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0.14569378499999999</v>
-      </c>
-      <c r="I14">
-        <v>3.7931694000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>0.131458357328925</v>
+      </c>
+      <c r="K14">
+        <v>25.668422058296802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>1.234148758089</v>
+        <v>0.92711630329596195</v>
       </c>
       <c r="D15">
-        <v>3.1921842382623002E-2</v>
-      </c>
-      <c r="F15">
+        <v>0.18605780199286101</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>0.53133594100000003</v>
-      </c>
-      <c r="I15">
-        <v>2.0012663999999999E-2</v>
+      <c r="I15" t="s">
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2.0012663999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+        <v>0.71605610961538002</v>
+      </c>
+      <c r="K15">
+        <v>0.53583045862582301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0.85090441780676795</v>
+      </c>
+      <c r="D16">
+        <v>0.46143786560146299</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>0.290656868686749</v>
+      </c>
+      <c r="K16">
+        <v>2.3052961588178502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>0.97231396691869398</v>
+      </c>
+      <c r="D17">
+        <v>0.39257830806516197</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.30209227077122502</v>
+      </c>
+      <c r="K17">
+        <v>2.6139348289506299</v>
+      </c>
+      <c r="L17">
+        <f>AVERAGE(J14:J17)</f>
+        <v>0.36006590160056973</v>
+      </c>
+      <c r="M17">
+        <f>AVERAGE(K14:K17)</f>
+        <v>7.7808708761727763</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0.77374996119414596</v>
+      </c>
+      <c r="D18">
+        <v>0.58217448866594701</v>
+      </c>
+      <c r="H18">
         <v>4</v>
       </c>
-      <c r="C16" s="2">
-        <v>1.2944413554515599</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5.2409811328759603E-2</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>0.59813882816532005</v>
+      </c>
+      <c r="K18">
+        <v>1.3755162285746001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="H16" s="2">
-        <v>0.22580383500000001</v>
-      </c>
-      <c r="I16">
-        <v>2.6211991E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17">
-        <v>1.27553131200612</v>
-      </c>
-      <c r="D17">
-        <v>2.8619791510502399E-2</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17">
-        <v>0.25171195400000002</v>
-      </c>
-      <c r="I17">
-        <v>3.2830497E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <v>1.20187371404669</v>
-      </c>
-      <c r="D18">
-        <v>1.42437814627344E-2</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>0.21645530800000001</v>
-      </c>
-      <c r="I18">
-        <v>2.8161812000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>0.56776695587006198</v>
+        <v>0.808390630797164</v>
       </c>
       <c r="D19">
-        <v>1.5866534849617E-2</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
+        <v>0.36081531254600502</v>
       </c>
       <c r="H19">
-        <v>0.221513302</v>
-      </c>
-      <c r="I19">
-        <v>3.8941832000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.206180545702257</v>
+      </c>
+      <c r="K19">
+        <v>3.38087808420762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>1.4705092378047799</v>
+        <v>0.86926863678338195</v>
       </c>
       <c r="D20">
-        <v>2.5935027888811999E-2</v>
+        <v>0.38964858326879498</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(C11:C20)</f>
+        <v>0.85696562928934505</v>
       </c>
       <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
+        <f>AVERAGE(D11:D20)</f>
+        <v>0.41395262810003591</v>
+      </c>
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="H20">
-        <v>0.190486503</v>
-      </c>
-      <c r="I20">
-        <v>2.1562992E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>0.46878935594120602</v>
+      </c>
+      <c r="K20">
+        <v>2.3538785462924401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>0.56447624307303501</v>
+        <v>0.73861757677748396</v>
       </c>
       <c r="D21">
-        <v>2.2149609524430298E-2</v>
-      </c>
-      <c r="F21">
+        <v>0.56406284548143903</v>
+      </c>
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21">
-        <v>0.28612215099999999</v>
-      </c>
-      <c r="I21">
-        <v>3.6185834E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.159097961250415</v>
+      </c>
+      <c r="K21">
+        <v>9.8181368656844796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.908252625803043</v>
+        <v>0.80492926111945995</v>
       </c>
       <c r="D22">
-        <v>1.7742719678592599E-2</v>
-      </c>
-      <c r="F22">
+        <v>0.415612536716088</v>
+      </c>
+      <c r="H22">
         <v>4</v>
       </c>
-      <c r="G22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0.123278972</v>
-      </c>
-      <c r="I22">
-        <v>5.1663003999999998E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>0.215104124850095</v>
+      </c>
+      <c r="K22">
+        <v>9.1347701073761804</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>1.17334549206074</v>
+        <v>0.97591908100675495</v>
       </c>
       <c r="D23">
-        <v>3.7667034855280598E-2</v>
-      </c>
-      <c r="F23">
+        <v>0.33302551240721201</v>
+      </c>
+      <c r="H23">
         <v>4</v>
       </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>0.21637921199999999</v>
-      </c>
-      <c r="I23">
-        <v>2.9906006999999998E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0.120991136845665</v>
+      </c>
+      <c r="K23">
+        <v>18.0775366379243</v>
+      </c>
+      <c r="L23">
+        <f>AVERAGE(J18:J23)</f>
+        <v>0.29471699212582636</v>
+      </c>
+      <c r="M23">
+        <f>AVERAGE(K18:K23)</f>
+        <v>7.3567860783432701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.496754304367092</v>
+        <v>0.86483680557155496</v>
       </c>
       <c r="D24">
-        <v>2.15343204410301E-2</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24" t="s">
-        <v>2</v>
+        <v>0.304833021876453</v>
       </c>
       <c r="H24">
-        <v>0.150167992</v>
-      </c>
-      <c r="I24">
-        <v>5.0175269000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>0.57108444044722795</v>
+      </c>
+      <c r="K24">
+        <v>1.57732298429816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>0.75730954377795201</v>
+      </c>
+      <c r="D25">
+        <v>0.48593378431054601</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.93052653469786895</v>
+      </c>
+      <c r="K25">
+        <v>0.39056620639427397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0.76526740099402601</v>
+      </c>
+      <c r="D26">
+        <v>0.385326867126771</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26">
+        <v>0.94802220996239495</v>
+      </c>
+      <c r="K26">
+        <v>0.530157504700833</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>0.65085213374587902</v>
+      </c>
+      <c r="D27">
+        <v>0.63413451564774703</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.98556256598870096</v>
+      </c>
+      <c r="K27">
+        <v>0.51124008713209002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>0.82222307779353598</v>
+      </c>
+      <c r="D28">
+        <v>0.39240720568544402</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28">
+        <v>0.82957877609664199</v>
+      </c>
+      <c r="K28">
+        <v>0.32695916988778201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.83873103337359001</v>
+      </c>
+      <c r="D29">
+        <v>0.48278721180809703</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0.79246874557181801</v>
+      </c>
+      <c r="K29">
+        <v>0.581535542784411</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGE(J24:J29)</f>
+        <v>0.84287387879410891</v>
+      </c>
+      <c r="M29">
+        <f>AVERAGE(K24:K29)</f>
+        <v>0.65296358253292497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>4</v>
       </c>
-      <c r="C25">
-        <v>0.79928678462027003</v>
-      </c>
-      <c r="D25">
-        <v>2.5364757542526602E-2</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2">
+      <c r="C30">
+        <v>0.81666293425744096</v>
+      </c>
+      <c r="D30">
+        <v>0.53237461976345501</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <v>0.83100495909287597</v>
+      </c>
+      <c r="K30">
+        <v>0.52047026483925296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>0.96647707299140795</v>
+      </c>
+      <c r="D31">
+        <v>0.29316574774743898</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.73229756699039805</v>
+      </c>
+      <c r="K31">
+        <v>0.46828115054949399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0.87744376730650198</v>
+      </c>
+      <c r="D32">
+        <v>0.34358800500742798</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32">
+        <v>0.690065052388113</v>
+      </c>
+      <c r="K32">
+        <v>0.38600865409410001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>0.74998258099834003</v>
+      </c>
+      <c r="D33">
+        <v>0.371472528918178</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(C21:C33)</f>
+        <v>0.81763478997799455</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(D21:D33)</f>
+        <v>0.42605572326894597</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.965452591209782</v>
+      </c>
+      <c r="K33">
+        <v>0.42797340732843803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>4</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.27886101699999999</v>
-      </c>
-      <c r="I25">
-        <v>1.9399349E-2</v>
-      </c>
-      <c r="J25">
-        <v>1.9399349E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>0.41337190431042098</v>
+      </c>
+      <c r="D34">
+        <v>0.85980875286904501</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>0.72576123630297396</v>
+      </c>
+      <c r="K34">
+        <v>0.43533273252320598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0.64518533769765796</v>
+      </c>
+      <c r="D35">
+        <v>0.53191610587913496</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>0.68390568004883101</v>
+      </c>
+      <c r="K35">
+        <v>0.34347521644754903</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0.52177739728303396</v>
+      </c>
+      <c r="D36">
+        <v>0.72877800122090697</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>0.93136819030673501</v>
+      </c>
+      <c r="K36">
+        <v>0.46175256482372101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>0.74416660493490705</v>
+      </c>
+      <c r="D37">
+        <v>0.53506769729147896</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1.03257565015979</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.72355518467604E-2</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
+      <c r="J37">
+        <v>0.75069190911734296</v>
+      </c>
+      <c r="K37">
+        <v>0.334993890846571</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>4</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.13956849299999999</v>
-      </c>
-      <c r="I26">
-        <v>3.5708324E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>0.789166085701412</v>
+      </c>
+      <c r="D38">
+        <v>0.51873969685223298</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>0.63048396056732403</v>
+      </c>
+      <c r="K38">
+        <v>0.76800072306829903</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>0.75234149975494502</v>
-      </c>
-      <c r="D27">
-        <v>2.0037120865800999E-2</v>
-      </c>
-      <c r="F27">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>0.71694775899956398</v>
+      </c>
+      <c r="D39">
+        <v>1.2765738052361999</v>
+      </c>
+      <c r="E39">
+        <f>AVERAGE(C34:C39)</f>
+        <v>0.63843584815449927</v>
+      </c>
+      <c r="F39">
+        <f>AVERAGE(D34:D39)</f>
+        <v>0.74181400989149981</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>0.82864885359797003</v>
+      </c>
+      <c r="K39">
+        <v>0.266177246330979</v>
+      </c>
+      <c r="L39">
+        <f>AVERAGE(J30:J39)</f>
+        <v>0.77696799996223465</v>
+      </c>
+      <c r="M39">
+        <f>AVERAGE(K30:K39)</f>
+        <v>0.44124658508516096</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>5</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27">
-        <v>0.92470249900000001</v>
-      </c>
-      <c r="I27">
-        <v>2.0828895E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28">
-        <v>0.64892555206076497</v>
-      </c>
-      <c r="D28">
-        <v>1.70514327324486E-2</v>
-      </c>
-      <c r="F28">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>0.99809275725621305</v>
+      </c>
+      <c r="D40">
+        <v>0.292197397791917</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <v>0.929950377103957</v>
+      </c>
+      <c r="K40">
+        <v>0.38997792009509702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>5</v>
       </c>
-      <c r="G28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0.99102397099999995</v>
-      </c>
-      <c r="I28">
-        <v>1.7842371999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.92903873802683901</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3.7985945522524898E-2</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2">
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0.94111673437140997</v>
+      </c>
+      <c r="D41">
+        <v>0.59710098513296095</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.71514178610201495</v>
+      </c>
+      <c r="K41">
+        <v>0.485685776164414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>5</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.99692197800000004</v>
-      </c>
-      <c r="I29">
-        <v>3.4115909E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>0.88080246727922995</v>
-      </c>
-      <c r="D30">
-        <v>2.7344608159992699E-2</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>0.95905703899999994</v>
-      </c>
-      <c r="I30">
-        <v>3.7728594999999997E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>1.32597832680567</v>
-      </c>
-      <c r="D31">
-        <v>2.61626206975469E-2</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31">
-        <v>0.99299780699999995</v>
-      </c>
-      <c r="I31">
-        <v>3.5084908999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0.88383280810939402</v>
-      </c>
-      <c r="D32">
-        <v>1.3586146679685799E-2</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>0.95528191500000004</v>
-      </c>
-      <c r="I32">
-        <v>3.8128489000000002E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>0.90530509108605595</v>
-      </c>
-      <c r="D33">
-        <v>1.59465232041507E-2</v>
-      </c>
-      <c r="F33">
-        <v>5</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33">
-        <v>1.0270633220000001</v>
-      </c>
-      <c r="I33">
-        <v>1.5054217E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>1.0057500222797999</v>
-      </c>
-      <c r="D34">
-        <v>3.27002384046301E-2</v>
-      </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="G34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <v>0.98805355900000003</v>
-      </c>
-      <c r="I34">
-        <v>1.3111678E-2</v>
-      </c>
-      <c r="J34">
-        <v>1.3111678E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35">
-        <v>0.99523774062625203</v>
-      </c>
-      <c r="D35">
-        <v>1.7007069874178299E-2</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2">
-        <f>AVERAGE(H1:H34)</f>
-        <v>0.54422462167647068</v>
-      </c>
-      <c r="I35" s="2">
-        <f>AVERAGE(I1:I34)</f>
-        <v>2.824873188235294E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>1.1984411602227401</v>
-      </c>
-      <c r="D36">
-        <v>1.54521488292383E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37">
-        <v>1.0017911015605601</v>
-      </c>
-      <c r="D37">
-        <v>3.6125957720454897E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38">
-        <v>0.99132019926443204</v>
-      </c>
-      <c r="D38">
-        <v>2.12782025894497E-2</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>5</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1.1937237518857899</v>
-      </c>
-      <c r="D39" s="2">
-        <v>8.8084967662718297E-3</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40">
-        <v>1.5449936403151201</v>
-      </c>
-      <c r="D40">
-        <v>1.9652818536559501E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41">
-        <v>0.87831381769939998</v>
-      </c>
-      <c r="D41">
-        <v>8.08790761690149E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>6</v>
-      </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>1.1316567174577401</v>
+        <v>0.821336538028137</v>
       </c>
       <c r="D42">
-        <v>3.6793951836133201E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.52253183431579797</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>0.751645012385877</v>
+      </c>
+      <c r="K42">
+        <v>0.43084590921882199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>1.00969131262061</v>
+        <v>0.77409685483347401</v>
       </c>
       <c r="D43">
-        <v>0.16964545800671099</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.71774531315817702</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.49987878977314298</v>
+      </c>
+      <c r="K43">
+        <v>0.73241670037403095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
       <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>0.93117939576964603</v>
+      </c>
+      <c r="D44">
+        <v>0.35577783840967903</v>
+      </c>
+      <c r="E44" s="3">
+        <f>AVERAGE(C40:C44)</f>
+        <v>0.89316445605177608</v>
+      </c>
+      <c r="F44" s="3">
+        <f>AVERAGE(D40:D44)</f>
+        <v>0.49707067376170644</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>0.53631314302863298</v>
+      </c>
+      <c r="K44">
+        <v>0.52046207588471305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>0.85177603354597198</v>
+      </c>
+      <c r="D45">
+        <v>0.26473369031032201</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>0.68883206182197398</v>
+      </c>
+      <c r="K45">
+        <v>0.50325821470335297</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0.71494512626076001</v>
+      </c>
+      <c r="D46">
+        <v>0.54158755413248705</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>0.386034800835722</v>
+      </c>
+      <c r="K46">
+        <v>0.90103476438808205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0.50803600549948802</v>
+      </c>
+      <c r="D47">
+        <v>0.62531919566403404</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47" t="s">
         <v>3</v>
       </c>
-      <c r="C44">
-        <v>0.99455821907001596</v>
-      </c>
-      <c r="D44">
-        <v>0.123865135834451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45">
-        <v>1.1924975254064201</v>
-      </c>
-      <c r="D45">
-        <v>0.17040950250782899</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>1.0081398915845301</v>
-      </c>
-      <c r="D46">
-        <v>0.22477461663922099</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47">
-        <v>0.99303005048681803</v>
-      </c>
-      <c r="D47">
-        <v>0.14920069222520899</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0.77485296709753004</v>
+      </c>
+      <c r="K47">
+        <v>0.44700512177312501</v>
+      </c>
+      <c r="L47">
+        <f>AVERAGE(J40:J47)</f>
+        <v>0.66033111726860638</v>
+      </c>
+      <c r="M47">
+        <f>AVERAGE(K40:K47)</f>
+        <v>0.55133581032520462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>1.19066521713232</v>
+        <v>0.70416014756638501</v>
       </c>
       <c r="D48">
-        <v>0.160109589875647</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.50259454570283801</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <v>0.55568298956846096</v>
+      </c>
+      <c r="K48">
+        <v>1.40057557384508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1.0396025900903501</v>
-      </c>
-      <c r="D49" s="1">
-        <v>8.1891879033417797E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>0.91078160839168298</v>
+      </c>
+      <c r="D49">
+        <v>0.26993655507179998</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.38290552731203398</v>
+      </c>
+      <c r="K49">
+        <v>0.88710828041795897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>0.58690986369088405</v>
+      </c>
+      <c r="D50">
+        <v>0.50111167341004403</v>
+      </c>
+      <c r="H50">
+        <v>8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>0.88185239558058504</v>
+      </c>
+      <c r="K50">
+        <v>0.34875596621593302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>6</v>
       </c>
-      <c r="C50">
-        <v>1.02402119104824</v>
-      </c>
-      <c r="D50">
-        <v>0.121499318292537</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>5</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1.2278242870795699</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.114038711388549</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>0.92473121953579696</v>
+      </c>
+      <c r="D51">
+        <v>0.26055633801373901</v>
+      </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>8</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0.35451715225556901</v>
+      </c>
+      <c r="K51">
+        <v>0.89087258306277695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>1.3840594159999999</v>
+        <v>0.80046515629653403</v>
       </c>
       <c r="D52">
-        <v>0.171980983</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.45251708459200501</v>
+      </c>
+      <c r="H52">
+        <v>8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <v>0.78675136752192898</v>
+      </c>
+      <c r="K52">
+        <v>0.40921097040996901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>0.91991241199999996</v>
+        <v>0.60636515467339602</v>
       </c>
       <c r="D53">
-        <v>0.348985398</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.46866975151068901</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0.521436579592922</v>
+      </c>
+      <c r="K53">
+        <v>0.67475604916151799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>1.1327763470000001</v>
+        <v>0.78839010418533295</v>
       </c>
       <c r="D54">
-        <v>0.262982891</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.36476494706323098</v>
+      </c>
+      <c r="H54">
+        <v>8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>0.94846141130884498</v>
+      </c>
+      <c r="K54">
+        <v>0.44691536904802398</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>0.54186995786464398</v>
+      </c>
+      <c r="D55">
+        <v>1.3940961608918001</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>0.56003076206176705</v>
+      </c>
+      <c r="K55">
+        <v>0.64256503104376395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
       <c r="C56">
-        <f>AVERAGE(C2:C54)</f>
-        <v>1.1785171113421404</v>
+        <v>0.66933422910160001</v>
       </c>
       <c r="D56">
-        <f>AVERAGE(D2:D54)</f>
-        <v>5.7991979991925173E-2</v>
+        <v>0.47894614638011501</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>0.63973907190006896</v>
+      </c>
+      <c r="K56">
+        <v>0.49918856736263301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>0.53369582570256202</v>
+      </c>
+      <c r="D57">
+        <v>0.94197947743281696</v>
+      </c>
+      <c r="E57">
+        <f>AVERAGE(C45:C57)</f>
+        <v>0.70318926402423376</v>
+      </c>
+      <c r="F57">
+        <f>AVERAGE(D45:D57)</f>
+        <v>0.54360100924430166</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57">
+        <v>0.652893437765937</v>
+      </c>
+      <c r="K57">
+        <v>0.63672451797266305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>0.54752286074664003</v>
+      </c>
+      <c r="D58">
+        <v>1.0660845757047399</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58">
+        <v>0.85292397889631599</v>
+      </c>
+      <c r="K58">
+        <v>0.254947449065073</v>
+      </c>
+      <c r="L58">
+        <f>AVERAGE(J48:J58)</f>
+        <v>0.64883587943313037</v>
+      </c>
+      <c r="M58">
+        <f>AVERAGE(K48:K58)</f>
+        <v>0.64469275978230844</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.897428620490345</v>
+      </c>
+      <c r="D59">
+        <v>0.36518991700686998</v>
+      </c>
+      <c r="H59">
+        <v>9</v>
+      </c>
+      <c r="I59" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <v>0.65700471299599705</v>
+      </c>
+      <c r="K59">
+        <v>0.75711325501624804</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>0.92097752974063196</v>
+      </c>
+      <c r="D60">
+        <v>0.28171513463158998</v>
+      </c>
+      <c r="H60">
+        <v>9</v>
+      </c>
+      <c r="I60" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.67593459062962202</v>
+      </c>
+      <c r="K60">
+        <v>0.54811853230349605</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0.77350424195206802</v>
+      </c>
+      <c r="D61">
+        <v>0.49443606543445001</v>
+      </c>
+      <c r="H61">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61">
+        <v>0.66988155337826405</v>
+      </c>
+      <c r="K61">
+        <v>0.544260375591606</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>0.72164313635509303</v>
+      </c>
+      <c r="D62">
+        <v>0.512215679704353</v>
+      </c>
+      <c r="H62">
+        <v>9</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0.53889561344408299</v>
+      </c>
+      <c r="K62">
+        <v>0.77465632447269495</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>0.88053214654471401</v>
+      </c>
+      <c r="D63">
+        <v>0.354504094877162</v>
+      </c>
+      <c r="H63">
+        <v>9</v>
+      </c>
+      <c r="I63" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <v>0.67804128438134403</v>
+      </c>
+      <c r="K63">
+        <v>0.49633475129986498</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>0.93147754972323904</v>
+      </c>
+      <c r="D64">
+        <v>0.228349764665293</v>
+      </c>
+      <c r="H64">
+        <v>9</v>
+      </c>
+      <c r="I64" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>0.70262885478704296</v>
+      </c>
+      <c r="K64">
+        <v>0.54721122624396501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>0.75894097310530795</v>
+      </c>
+      <c r="D65">
+        <v>0.59627444564496601</v>
+      </c>
+      <c r="H65">
+        <v>9</v>
+      </c>
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65">
+        <v>0.696336768702288</v>
+      </c>
+      <c r="K65">
+        <v>0.53723313818436003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>0.93966929602402005</v>
+      </c>
+      <c r="D66">
+        <v>0.29332695171859702</v>
+      </c>
+      <c r="H66">
+        <v>9</v>
+      </c>
+      <c r="I66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>0.56017788255410395</v>
+      </c>
+      <c r="K66">
+        <v>0.83554213842601499</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>0.95890932923780203</v>
+      </c>
+      <c r="D67">
+        <v>0.25931453913110702</v>
+      </c>
+      <c r="H67">
+        <v>9</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>0.70481874688411805</v>
+      </c>
+      <c r="K67">
+        <v>0.56317670030058298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>0.63164042024679901</v>
+      </c>
+      <c r="D68">
+        <v>0.436800260210363</v>
+      </c>
+      <c r="H68">
+        <v>9</v>
+      </c>
+      <c r="I68" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68">
+        <v>0.91005975246666104</v>
+      </c>
+      <c r="K68">
+        <v>0.36286815796914301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69">
+        <v>0.82649518510740705</v>
+      </c>
+      <c r="D69">
+        <v>0.47310835612659602</v>
+      </c>
+      <c r="E69">
+        <f>AVERAGE(C58:C69)</f>
+        <v>0.81572844077283879</v>
+      </c>
+      <c r="F69">
+        <f>AVERAGE(D58:D69)</f>
+        <v>0.44677664873800721</v>
+      </c>
+      <c r="H69">
+        <v>9</v>
+      </c>
+      <c r="I69" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69">
+        <v>0.90191010949971295</v>
+      </c>
+      <c r="K69">
+        <v>0.26727781628096198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>0.27963050894228503</v>
+      </c>
+      <c r="D70">
+        <v>3.3542999992595401</v>
+      </c>
+      <c r="H70">
+        <v>9</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>0.72555424056559603</v>
+      </c>
+      <c r="K70">
+        <v>0.81858462330485504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0.47818465239921398</v>
+      </c>
+      <c r="D71">
+        <v>0.77295334596466803</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71">
+        <v>0.91289614702435096</v>
+      </c>
+      <c r="K71">
+        <v>0.53706397290163599</v>
+      </c>
+      <c r="L71">
+        <f>AVERAGE(J59:J71)</f>
+        <v>0.71801078902409121</v>
+      </c>
+      <c r="M71">
+        <f>AVERAGE(K59:K71)</f>
+        <v>0.5838031547919561</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>0.84318892706600801</v>
+      </c>
+      <c r="D72">
+        <v>0.47860616932942202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0.86764401150993997</v>
+      </c>
+      <c r="D73">
+        <v>0.20072199346367001</v>
+      </c>
+      <c r="L73">
+        <f>COUNTIF(L2:L71, "&lt;0.04")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>0.78661888677137604</v>
+      </c>
+      <c r="D74">
+        <v>0.367597445260536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>0.76149852434840304</v>
+      </c>
+      <c r="D75">
+        <v>0.57913000798101699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>0.96072126175991901</v>
+      </c>
+      <c r="D76">
+        <v>0.196380033212946</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>0.70835906650761604</v>
+      </c>
+      <c r="D77">
+        <v>0.37006545689668602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>0.74439838771392997</v>
+      </c>
+      <c r="D78">
+        <v>0.58617212148241404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>8</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>0.72920127017185099</v>
+      </c>
+      <c r="D79">
+        <v>0.37895108137717898</v>
+      </c>
+      <c r="E79">
+        <f>AVERAGE(C70:C79)</f>
+        <v>0.71594454971905419</v>
+      </c>
+      <c r="F79">
+        <f>AVERAGE(D70:D79)</f>
+        <v>0.72848776542280769</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>0.87108785673772504</v>
+      </c>
+      <c r="D80">
+        <v>0.52867188886039096</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.86983138121563697</v>
+      </c>
+      <c r="D81">
+        <v>0.37552653245331102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>0.92975598691125705</v>
+      </c>
+      <c r="D82">
+        <v>0.24162109469565701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0.92073056679005005</v>
+      </c>
+      <c r="D83">
+        <v>0.16312661244294599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>0.90418309066278302</v>
+      </c>
+      <c r="D84">
+        <v>0.38218954334918898</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>0.89443271240088296</v>
+      </c>
+      <c r="D85">
+        <v>0.50570026426307602</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>0.95709240609880897</v>
+      </c>
+      <c r="D86">
+        <v>0.42575011980456001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>0.85388560457353502</v>
+      </c>
+      <c r="D87">
+        <v>0.65827514062279002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>0.69056370276227896</v>
+      </c>
+      <c r="D88">
+        <v>1.2396998594215001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>0.80668169561889802</v>
+      </c>
+      <c r="D89">
+        <v>0.90279894041993503</v>
+      </c>
+      <c r="E89">
+        <f>AVERAGE(C80:C89)</f>
+        <v>0.86982450037718562</v>
+      </c>
+      <c r="F89">
+        <f>AVERAGE(D80:D89)</f>
+        <v>0.54233599963333545</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E91" s="1">
+        <f>COUNTIF(E10:E89, "&gt;0.70")</f>
+        <v>8</v>
+      </c>
+      <c r="H91" s="1">
+        <f>E91+L92</f>
+        <v>14</v>
+      </c>
+      <c r="I91">
+        <f>H91/(H92+H91)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="L91" s="4">
+        <f>COUNTIF(L10:L89, "&gt;0.70")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E92" s="4">
+        <f>9-E91</f>
+        <v>1</v>
+      </c>
+      <c r="H92" s="4">
+        <f>E92+L91</f>
+        <v>4</v>
+      </c>
+      <c r="L92" s="1">
+        <f>9-L91</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
